--- a/設計書/画面設計書.xlsx
+++ b/設計書/画面設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117BEB05-BABF-4B3B-8420-695FC57589CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE025512-CD16-4E76-A3C4-4BECF8600EF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,38 +645,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>G-1</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G-2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G-3</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G-4</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G-5-2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G-5-1</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G-6-1</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G-6-2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>川口</t>
     <rPh sb="0" eb="2">
       <t>カワグチ</t>
@@ -723,6 +691,38 @@
       <t>シメ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G5-1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G5-2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G6-1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G6-2</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
@@ -1237,28 +1237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,15 +1264,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1308,6 +1281,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,6 +1305,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1338,23 +1347,17 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1383,6 +1386,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,6 +1410,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1405,21 +1420,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
@@ -1526,6 +1526,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54742</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54741</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="楕円 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EABF14-C41D-4C23-8B5E-5B6476FF4C68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7411983" y="1642242"/>
+          <a:ext cx="3678620" cy="3383017"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>442398</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -1550,8 +1608,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1652867" y="1768131"/>
-          <a:ext cx="1291634" cy="938584"/>
+          <a:off x="1671430" y="1720122"/>
+          <a:ext cx="1310198" cy="909778"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -1700,8 +1758,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6950474" y="1766758"/>
-          <a:ext cx="1291634" cy="949824"/>
+          <a:off x="7052573" y="1718749"/>
+          <a:ext cx="1310198" cy="921018"/>
           <a:chOff x="7154864" y="3068114"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -1795,7 +1853,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G2】</a:t>
+              <a:t>【G3】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1819,15 +1877,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>334732</xdr:colOff>
+      <xdr:colOff>297379</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>48740</xdr:rowOff>
+      <xdr:rowOff>33799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>415896</xdr:colOff>
+      <xdr:colOff>378543</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>152319</xdr:rowOff>
+      <xdr:rowOff>137378</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1842,9 +1900,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6992310" y="5952256"/>
-          <a:ext cx="1291633" cy="946938"/>
-          <a:chOff x="5911103" y="2885515"/>
+          <a:off x="7057056" y="5769283"/>
+          <a:ext cx="1310197" cy="922934"/>
+          <a:chOff x="5962948" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -1861,7 +1919,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5911103" y="2885515"/>
+            <a:off x="5962948" y="2885515"/>
             <a:ext cx="1295135" cy="945003"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1905,7 +1963,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6037613" y="3040542"/>
-            <a:ext cx="1116820" cy="742358"/>
+            <a:ext cx="1096995" cy="611533"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1937,21 +1995,13 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>４</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>】</a:t>
+              <a:t>【G5-2】</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>マイページ</a:t>
+              <a:t>チャット画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
@@ -1992,8 +2042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4198288" y="1700824"/>
-          <a:ext cx="1237498" cy="1082781"/>
+          <a:off x="4253979" y="1652815"/>
+          <a:ext cx="1256061" cy="1053975"/>
           <a:chOff x="2923202" y="1811803"/>
           <a:chExt cx="1523998" cy="910167"/>
         </a:xfrm>
@@ -2096,15 +2146,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>380436</xdr:colOff>
+      <xdr:colOff>201142</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>97076</xdr:rowOff>
+      <xdr:rowOff>37312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>457423</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>26515</xdr:rowOff>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131104</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2119,8 +2169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10064186" y="3976529"/>
-          <a:ext cx="1287456" cy="941470"/>
+          <a:off x="10033400" y="3806344"/>
+          <a:ext cx="1306019" cy="913147"/>
           <a:chOff x="7788341" y="3625395"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2181,8 +2231,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7916802" y="3816959"/>
-            <a:ext cx="1151113" cy="742358"/>
+            <a:off x="7916802" y="3770694"/>
+            <a:ext cx="1090663" cy="749204"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2214,13 +2264,20 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G9】</a:t>
+              <a:t>【G6-1】</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>会員登録画面</a:t>
+              <a:t>マイページ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
@@ -2238,15 +2295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>347267</xdr:colOff>
+      <xdr:colOff>302444</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>122369</xdr:rowOff>
+      <xdr:rowOff>55134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>425124</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>48922</xdr:rowOff>
+      <xdr:colOff>380301</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146040</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2261,8 +2318,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7004845" y="4001822"/>
-          <a:ext cx="1288326" cy="938584"/>
+          <a:off x="7062121" y="3824166"/>
+          <a:ext cx="1306890" cy="910261"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2356,155 +2413,20 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G8-2】</a:t>
+              <a:t>【G5-1】</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>映画予約完了画面</a:t>
+              <a:t>チャット選択</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>456670</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>537835</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>88875</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="61" name="グループ化 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E780D1-983E-40A6-857E-343655C395F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4088076" y="7911307"/>
-          <a:ext cx="1291634" cy="948506"/>
-          <a:chOff x="5911103" y="2885515"/>
-          <a:chExt cx="1295135" cy="945003"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD2D845-23F2-4C99-B7BC-69DF3D0A6FE0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5911103" y="2885515"/>
-            <a:ext cx="1295135" cy="945003"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="テキスト ボックス 62">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B3BC76-D206-42BC-8EDC-62BFBAD29A7D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6009700" y="2988907"/>
-            <a:ext cx="1116820" cy="742358"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G6-1】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>会員情報変更画面</a:t>
+              <a:t>画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
@@ -2545,8 +2467,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9886025" y="1766623"/>
-          <a:ext cx="1291632" cy="938584"/>
+          <a:off x="10034533" y="1718614"/>
+          <a:ext cx="1310195" cy="909778"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2607,8 +2529,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6004485" y="3006912"/>
-            <a:ext cx="1116820" cy="742358"/>
+            <a:off x="6026705" y="2999178"/>
+            <a:ext cx="1098502" cy="685421"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2640,13 +2562,13 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G8-1】</a:t>
+              <a:t>【G4】</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>映画予約画面</a:t>
+              <a:t>きっかけガチャ画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
@@ -2664,15 +2586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>519774</xdr:colOff>
+      <xdr:colOff>206009</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>56754</xdr:rowOff>
+      <xdr:rowOff>26871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>600939</xdr:colOff>
+      <xdr:colOff>287174</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>161901</xdr:rowOff>
+      <xdr:rowOff>132018</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2687,8 +2609,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10203524" y="5960270"/>
-          <a:ext cx="1291634" cy="948506"/>
+          <a:off x="10038267" y="5762355"/>
+          <a:ext cx="1310197" cy="924502"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2750,7 +2672,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6004485" y="3006912"/>
-            <a:ext cx="1116820" cy="742358"/>
+            <a:ext cx="1131831" cy="689011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2782,13 +2704,20 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G7-1】</a:t>
+              <a:t>【G6-2】</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>退会画面</a:t>
+              <a:t>マイページ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>変更画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
@@ -2829,8 +2758,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1647827" y="3933164"/>
-          <a:ext cx="1288326" cy="948506"/>
+          <a:off x="1666390" y="3822743"/>
+          <a:ext cx="1306890" cy="924501"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2891,8 +2820,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6004485" y="3006912"/>
-            <a:ext cx="1116820" cy="742358"/>
+            <a:off x="6019336" y="3083077"/>
+            <a:ext cx="1127753" cy="501704"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2924,13 +2853,13 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G5-1】</a:t>
+              <a:t>【G2】</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>予約確認画面</a:t>
+              <a:t>会員登録画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
@@ -2943,601 +2872,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>383646</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66146</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>464811</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>2620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="119" name="グループ化 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27544D94-1BB2-49A8-8BC0-E06C3DCFDF22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6435990" y="9849115"/>
-          <a:ext cx="1291634" cy="948505"/>
-          <a:chOff x="5911103" y="2885515"/>
-          <a:chExt cx="1295135" cy="945003"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="角丸四角形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D3A399-6D25-4462-BB29-20A6EA0BAB8C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5911103" y="2885515"/>
-            <a:ext cx="1295135" cy="945003"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="121" name="テキスト ボックス 120">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D51B84-D319-4B90-9BF6-BDCA8FAC3199}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6004485" y="3006912"/>
-            <a:ext cx="1116820" cy="742358"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G7-2】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>退会完了画面</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>46565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590752</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>141789</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="122" name="グループ化 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EC2F50-B733-471E-A097-27F84B9F5797}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4140993" y="9829534"/>
-          <a:ext cx="1291634" cy="938583"/>
-          <a:chOff x="5911103" y="2885515"/>
-          <a:chExt cx="1295135" cy="945003"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="角丸四角形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15F443D-28EA-4F88-B487-6422F671C464}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5911103" y="2885515"/>
-            <a:ext cx="1295135" cy="945003"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="テキスト ボックス 123">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A17A515-A15A-489F-ACF4-995988A32702}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6004485" y="3006912"/>
-            <a:ext cx="1116820" cy="742358"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G6-2】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>会員情報変更完了画面</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>79905</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>109670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>157762</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>36222</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="125" name="グループ化 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89DC7BE-AE9F-458E-8144-00F2235BC52C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1895608" y="8711936"/>
-          <a:ext cx="1288326" cy="938583"/>
-          <a:chOff x="5911103" y="2885515"/>
-          <a:chExt cx="1295135" cy="945003"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="角丸四角形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE217C8-6A3E-4844-B73D-9DDB43311D78}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5911103" y="2885515"/>
-            <a:ext cx="1295135" cy="945003"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="テキスト ボックス 126">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCFAAF5-8F81-41FF-AD5C-818A7C5CC8A6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6004485" y="3006912"/>
-            <a:ext cx="1116820" cy="742358"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G5-2】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>予約キャンセル画面</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>497252</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>88875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>550169</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>46565</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951C2122-8959-492E-BF50-EBFC49C8132D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="2"/>
-          <a:endCxn id="123" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4757044" y="8343875"/>
-          <a:ext cx="52917" cy="910190"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>424229</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>560357</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66146</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC3A96F-B2D2-4403-9BBF-71C259983AB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="104" idx="2"/>
-          <a:endCxn id="120" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7081807" y="6908776"/>
-          <a:ext cx="3767534" cy="2940339"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542397</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>141789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>550169</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>92604</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="152" name="直線コネクタ 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF9ED7B-0FE7-4C08-90E5-6DCE46DCC361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="123" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4802189" y="10143039"/>
-          <a:ext cx="7772" cy="427065"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3719,16 +3053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>51321</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328116</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>143353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>287734</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>564529</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>168671</xdr:rowOff>
+      <xdr:rowOff>162321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3743,8 +3077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2472259" y="3179447"/>
-          <a:ext cx="841647" cy="531333"/>
+          <a:off x="1549270" y="3074122"/>
+          <a:ext cx="846990" cy="507430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3847,15 +3181,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>325820</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63062</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>52113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>278420</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15661</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>145303</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3871,7 +3205,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11974786" y="2351251"/>
+          <a:off x="11098924" y="5143061"/>
           <a:ext cx="565703" cy="257414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3902,7 +3236,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>成功</a:t>
+            <a:t>戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3972,16 +3306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>169040</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>37661</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169039</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>121640</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>130851</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121639</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114570</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3996,8 +3330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5073868" y="7099299"/>
-          <a:ext cx="565703" cy="257414"/>
+          <a:off x="2611347" y="3114969"/>
+          <a:ext cx="563177" cy="256011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4036,16 +3370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>558362</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142328</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21897</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>412970</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>128314</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251811</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4060,8 +3394,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12207328" y="4083707"/>
-          <a:ext cx="1080814" cy="314435"/>
+          <a:off x="8605345" y="2430518"/>
+          <a:ext cx="1456121" cy="519894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4090,8 +3424,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ログイン完了</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フッターアイコンで各所遷移可能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4164,16 +3502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>244802</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>14888</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288595</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>197401</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108078</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>383189</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4188,8 +3526,72 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3310319" y="7076526"/>
-          <a:ext cx="565703" cy="257414"/>
+          <a:off x="5806526" y="3945318"/>
+          <a:ext cx="1320801" cy="390199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログアウトを押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590342</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>148480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>540414</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>77446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1C9B9E-E1B2-4971-B645-792031E766AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7947583" y="5403652"/>
+          <a:ext cx="563176" cy="257415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4228,23 +3630,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>506686</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>145391</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>576049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>459285</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>74357</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295604</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="テキスト ボックス 163">
+        <xdr:cNvPr id="170" name="テキスト ボックス 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1C9B9E-E1B2-4971-B645-792031E766AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E81BEB9-93C6-4DF5-8A5E-605BFBC4DB1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4252,8 +3654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6637720" y="6714357"/>
-          <a:ext cx="565703" cy="257414"/>
+          <a:off x="9772601" y="5203238"/>
+          <a:ext cx="945762" cy="303744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4283,7 +3685,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>戻る</a:t>
+            <a:t>修正を押下</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4292,23 +3694,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>43793</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>338520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>470776</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>65689</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="テキスト ボックス 166">
+        <xdr:cNvPr id="171" name="テキスト ボックス 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A51FE3-7F53-4F63-9749-496A4AD0FFD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DDE325-DE02-4A67-BFF5-02528E5EAB07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,8 +3718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8014138" y="5277069"/>
-          <a:ext cx="1040086" cy="536465"/>
+          <a:off x="338520" y="3656724"/>
+          <a:ext cx="865790" cy="262759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4347,15 +3749,9 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>会員登録を</a:t>
+            <a:t>登録を押下</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>押下</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4363,23 +3759,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>65690</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54742</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261008</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>218967</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>32845</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350345</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="テキスト ボックス 167">
+        <xdr:cNvPr id="172" name="テキスト ボックス 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F83D86-3761-42D9-A452-B024E006A983}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9B34A4-7CBE-4275-BFD7-6ED8CDCA3BAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,8 +3783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9262242" y="5145690"/>
-          <a:ext cx="766380" cy="470776"/>
+          <a:off x="3326525" y="1707928"/>
+          <a:ext cx="702441" cy="547415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4418,8 +3814,16 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>戻る又は登録完了</a:t>
+            <a:t>ログイン</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>を押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4427,23 +3831,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>153277</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>43793</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13992</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>580260</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>87585</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472180</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="テキスト ボックス 169">
+        <xdr:cNvPr id="136" name="テキスト ボックス 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E81BEB9-93C6-4DF5-8A5E-605BFBC4DB1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80BC131-FCA7-4821-8E33-929CA39129F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,8 +3855,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2605691" y="6448534"/>
-          <a:ext cx="1040086" cy="536465"/>
+          <a:off x="6730338" y="5163954"/>
+          <a:ext cx="1068765" cy="323097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4482,15 +3886,9 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>予約確認を</a:t>
+            <a:t>トークを選択</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>押下</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4498,23 +3896,1680 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>163348</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>86710</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>374061</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>202275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48936</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B336F36-8B8A-48B5-8163-0ED9B5728A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8337708" y="2179769"/>
+          <a:ext cx="1665979" cy="5755"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333479</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>341373</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98CD1CD-48C5-4912-BD07-CA60F3FE4B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7684538" y="2647479"/>
+          <a:ext cx="7894" cy="1187773"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>239636</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242857</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C5B391-3721-46B4-BF08-BC8C672E7D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10653636" y="2636104"/>
+          <a:ext cx="3221" cy="1181326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>380301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>201142</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0281FF1F-DAEA-40AB-B1A9-B7DD271AA682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8343948" y="4275208"/>
+          <a:ext cx="1658606" cy="16379"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337961</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>341373</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8771CB07-86B6-4D41-8D77-05E10B935EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7689020" y="4747922"/>
+          <a:ext cx="3412" cy="1038230"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>239636</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246592</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9CB815-CEF1-412E-9C07-934C0B826288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10653636" y="4732986"/>
+          <a:ext cx="6956" cy="1046238"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>553590</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>149977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557482</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704A9A96-C064-4132-9ED4-8337CBAD5552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7880513" y="4708951"/>
+          <a:ext cx="3892" cy="981626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89304</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8D0436-7C18-4D0D-9469-9C01B8C8A84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2531612" y="2618008"/>
+          <a:ext cx="247" cy="1159428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>578013</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>578260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD077EBA-5B46-42B3-9ECB-3F6DD29F14BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7904936" y="2637692"/>
+          <a:ext cx="247" cy="1159428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>521025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>521272</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D474867-0103-4146-94DD-995CD7125050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10900833" y="2605128"/>
+          <a:ext cx="247" cy="1159428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>545448</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>545449</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DE0825-3B21-4EB3-9478-562176DBBEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10925256" y="4689231"/>
+          <a:ext cx="1" cy="1009487"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398854</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170961</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56989</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C3182C-12BB-49DD-974A-8CEDAF10C31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8369199" y="2356125"/>
+          <a:ext cx="1611417" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390769</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162876</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FAFCCC-C659-45EC-BC75-D4E0C9D2460D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8328269" y="4396154"/>
+          <a:ext cx="1603838" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>377567</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231689</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25744</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D32E9C4-E59D-4D12-A637-21EE3E528835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8297905" y="2608650"/>
+          <a:ext cx="1681892" cy="1167026"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368986</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257433</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEDA5A6-FACE-4A74-AA45-520FD320B4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8289324" y="2574324"/>
+          <a:ext cx="1716217" cy="1244257"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444157</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60068</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0888578-288A-4CAF-B813-D54FA180A4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8400878" y="2709563"/>
+          <a:ext cx="1791387" cy="1263478"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257432</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137297</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F51CE8-D146-4594-892B-5B7693ADA89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8177770" y="2737365"/>
+          <a:ext cx="1707635" cy="1175608"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>437358</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442398</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24172</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="コネクタ: カギ線 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE66960-F790-4274-8AC8-24DC9276AC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="1"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="1663565" y="2179602"/>
+          <a:ext cx="5040" cy="2114398"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -9314722"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482981</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>580397</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="コネクタ: カギ線 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EBCAB2-BDDC-40F9-89C6-B3E2482F69BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="3563552" y="415084"/>
+          <a:ext cx="67307" cy="2549830"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -339638"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333478</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21899</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="コネクタ: カギ線 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C451D7C5-097A-4A1E-B203-BF20E5119C46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9794049" y="-767639"/>
+          <a:ext cx="386590" cy="4593249"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21897</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FD6C05-F1B2-46B7-BEDE-F0F5B2FDE275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12283966" y="1335690"/>
+          <a:ext cx="10948" cy="6229569"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="コネクタ: カギ線 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1659FB75-F187-4930-9BCF-45B4A370BAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4882931" y="4258879"/>
+          <a:ext cx="7411983" cy="3317328"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -74"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242856</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>251810</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>79904</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直線コネクタ 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26088B92-9937-406E-9702-BB0FB6781E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10665615" y="1335690"/>
+          <a:ext cx="8954" cy="386455"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21897</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2096</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直線コネクタ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E05A3F7-2FF2-4179-A205-5555E8BD79C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11313991" y="4269828"/>
+          <a:ext cx="969975" cy="2096"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246591</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>132018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>251810</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直線コネクタ 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBE9472-A379-4611-978B-7865D679F216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="104" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10669350" y="6700984"/>
+          <a:ext cx="5219" cy="864275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337962</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>137378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350345</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直線コネクタ 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD46FAD9-F94F-4A92-8FC9-FF3D478B17F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7695203" y="6706344"/>
+          <a:ext cx="12383" cy="847966"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302444</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直線コネクタ 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF0CF69-77B1-4D7A-9520-A9786CE8C4D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4882931" y="4269828"/>
+          <a:ext cx="2163651" cy="18475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569310</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295603</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142328</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="直線コネクタ 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E1AAAE-62EE-424A-8C2D-CA49A5763592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4861034" y="2572845"/>
+          <a:ext cx="2178707" cy="1675086"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>602155</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="直線矢印コネクタ 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D298FC8-FB70-4EBE-B840-CB90D0511229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2977931" y="2594741"/>
+          <a:ext cx="1915948" cy="1642242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>590331</xdr:colOff>
+      <xdr:colOff>306552</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>401146</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>130503</xdr:rowOff>
+      <xdr:rowOff>61751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="テキスト ボックス 170">
+        <xdr:cNvPr id="205" name="テキスト ボックス 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DDE325-DE02-4A67-BFF5-02528E5EAB07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82B24C2-2CB4-4231-84A7-EF2B7F33AA49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4522,8 +5577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5681279" y="7148348"/>
-          <a:ext cx="1040086" cy="536465"/>
+          <a:off x="6437586" y="7225862"/>
+          <a:ext cx="1320801" cy="390199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4553,14 +5608,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>退会手を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>押下</a:t>
+            <a:t>ログアウトを押下</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4569,23 +5617,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>74886</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>131377</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>251809</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>547414</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>346403</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
+      <xdr:rowOff>50803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="テキスト ボックス 171">
+        <xdr:cNvPr id="206" name="テキスト ボックス 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9B34A4-7CBE-4275-BFD7-6ED8CDCA3BAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC0431B-1FD6-4715-A876-41C22BB337A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4593,8 +5641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3753507" y="7028791"/>
-          <a:ext cx="1085631" cy="547415"/>
+          <a:off x="9448361" y="7214914"/>
+          <a:ext cx="1320801" cy="390199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4624,16 +5672,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>会員情報変更</a:t>
+            <a:t>ログアウトを押下</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>を押下</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4641,23 +5681,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541063</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76639</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361294</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541063</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>120431</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76639</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="テキスト ボックス 175">
+        <xdr:cNvPr id="207" name="テキスト ボックス 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBA7BD0-AD09-42FA-8FF5-EAF715219CE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803E1497-8954-49A5-ABDF-B40544751D5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4665,8 +5705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4832787" y="8944742"/>
-          <a:ext cx="1226207" cy="536465"/>
+          <a:off x="11397156" y="3820948"/>
+          <a:ext cx="941552" cy="514569"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4696,9 +5736,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>変更を押下</a:t>
+            <a:t>ログアウトを押下</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4706,23 +5745,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>405086</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273707</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>218965</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>65689</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94596</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="テキスト ボックス 176">
+        <xdr:cNvPr id="208" name="テキスト ボックス 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486F2BC9-46B1-4AA1-925D-5AB431ECF4DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841E8EF8-B3E3-4F07-9678-CEC22B4FFA58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4730,8 +5769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7149224" y="8890000"/>
-          <a:ext cx="1040086" cy="536465"/>
+          <a:off x="7630948" y="1018190"/>
+          <a:ext cx="1320801" cy="390199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4761,9 +5800,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>退会を押下</a:t>
+            <a:t>ログアウトを押下</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4771,23 +5809,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>232992</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>35923</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>98534</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>356502</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>79716</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>193128</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="テキスト ボックス 177">
+        <xdr:cNvPr id="209" name="テキスト ボックス 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885E9D7E-B5B4-40B2-ACE4-5AC5DE63EFEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9173768C-7361-4BAF-976E-99ED700A288F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4795,8 +5833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2653930" y="8469517"/>
-          <a:ext cx="1333978" cy="549808"/>
+          <a:off x="10521293" y="1007241"/>
+          <a:ext cx="1320801" cy="390199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4826,9 +5864,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>確認を押下</a:t>
+            <a:t>ログアウトを押下</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4836,195 +5873,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>482981</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>14104</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>98535</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>164223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>580396</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>81411</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="180" name="コネクタ: カギ線 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66204AAC-4D8A-4C93-AD93-44820D0A6B7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="0"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="3524207" y="475300"/>
-          <a:ext cx="67307" cy="2518353"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -339638"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600939</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>24992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>287050</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>48926</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="182" name="コネクタ: カギ線 181">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E92ACF4-59B9-4574-82E7-6C4A0C9BF029}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="104" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11495158" y="6434523"/>
-          <a:ext cx="291345" cy="2891356"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>426983</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>54741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>109483</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>54741</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="191" name="直線コネクタ 190">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E8BDC2-73BE-4AFD-861F-BA13B76DF6E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7171121" y="10893534"/>
-          <a:ext cx="908707" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>470775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>153276</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>197945</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>77514</xdr:rowOff>
+      <xdr:colOff>193129</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="テキスト ボックス 191">
+        <xdr:cNvPr id="210" name="テキスト ボックス 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F73A47-7FC6-4CBE-A97F-219EE9184ECA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0A2C4D-7BD8-4D57-BB6C-0059E193A582}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5032,8 +5897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3536292" y="8692931"/>
-          <a:ext cx="953377" cy="252686"/>
+          <a:off x="5616466" y="2627585"/>
+          <a:ext cx="1320801" cy="390199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5063,454 +5928,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ロゴを押下</a:t>
+            <a:t>ログアウトを押下</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>272830</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>97659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="テキスト ボックス 192">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759CD425-EBC3-4F25-9B5C-F4006C64486B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5790761" y="8637314"/>
-          <a:ext cx="953377" cy="252686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ロゴを押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>107729</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>20145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>448003</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>108607</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="テキスト ボックス 193">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90B85DC-A666-46C3-9AAE-A0513263902E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8078074" y="8395576"/>
-          <a:ext cx="953377" cy="252686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ロゴを押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>58772</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>36222</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>118833</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24ECED8-3BFF-4C74-9FF3-EDEDFA8E414B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="126" idx="2"/>
-          <a:endCxn id="133" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2479710" y="9650519"/>
-          <a:ext cx="60061" cy="291199"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>97701</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85301</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="132" name="グループ化 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55F0184-42C1-4ED5-8553-A6AC3831F289}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1835547" y="9941718"/>
-          <a:ext cx="1288326" cy="938583"/>
-          <a:chOff x="5911103" y="2885515"/>
-          <a:chExt cx="1295135" cy="945003"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="角丸四角形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0218A848-98A0-477E-A046-F750F497F5B6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5911103" y="2885515"/>
-            <a:ext cx="1295135" cy="945003"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="テキスト ボックス 133">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E188946B-32EB-4D70-8905-CE7081578F69}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6004485" y="3006912"/>
-            <a:ext cx="1116820" cy="742358"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G5-3】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>予約キャンセル完了画面</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57381</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>69453</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="直線コネクタ 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396A2E74-7DB3-400B-81FA-E414E37EE667}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2478319" y="10874375"/>
-          <a:ext cx="12072" cy="297656"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>168671</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292181</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>103324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="テキスト ボックス 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80BC131-FCA7-4821-8E33-929CA39129F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2589609" y="9673829"/>
-          <a:ext cx="1333978" cy="549808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>取り消しを押下</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6070,16 +6489,16 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="66" t="s">
+      <c r="Q3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="75">
+      <c r="R3" s="61"/>
+      <c r="S3" s="59">
         <v>43712</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="67"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="61"/>
       <c r="W3" s="32"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="8"/>
@@ -6128,13 +6547,13 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="9"/>
@@ -6157,14 +6576,14 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="65" t="s">
+      <c r="Q6" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
       <c r="W6" s="8"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="8"/>
@@ -6176,14 +6595,14 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -6202,70 +6621,70 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="83" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="66" t="s">
+      <c r="Q8" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="67"/>
-      <c r="S8" s="66" t="s">
+      <c r="R8" s="61"/>
+      <c r="S8" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="67"/>
-      <c r="U8" s="66" t="s">
+      <c r="T8" s="61"/>
+      <c r="U8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="67"/>
+      <c r="V8" s="61"/>
       <c r="W8" s="32"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="88"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="68" t="s">
+      <c r="Q9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="69"/>
-      <c r="S9" s="68" t="s">
+      <c r="R9" s="63"/>
+      <c r="S9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="68" t="s">
-        <v>83</v>
+      <c r="T9" s="63"/>
+      <c r="U9" s="62" t="s">
+        <v>75</v>
       </c>
-      <c r="V9" s="69"/>
+      <c r="V9" s="63"/>
       <c r="W9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="8"/>
@@ -6287,12 +6706,12 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="71"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="65"/>
       <c r="W10" s="30"/>
       <c r="X10" s="28"/>
       <c r="Y10" s="8"/>
@@ -6314,12 +6733,12 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="73"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="67"/>
       <c r="W11" s="30"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="25"/>
@@ -6404,81 +6823,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="43"/>
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="43"/>
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
       <c r="W17" s="43"/>
       <c r="X17" s="9"/>
     </row>
@@ -7032,511 +7451,511 @@
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="62" t="s">
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="62" t="s">
+      <c r="F39" s="84"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="62" t="s">
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="63"/>
-      <c r="V39" s="64"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="85"/>
       <c r="W39" s="41"/>
       <c r="X39" s="9"/>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="59">
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="87">
         <v>43578</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62" t="s">
+      <c r="F40" s="88"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="62" t="s">
-        <v>83</v>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="83" t="s">
+        <v>75</v>
       </c>
-      <c r="U40" s="63"/>
-      <c r="V40" s="64"/>
+      <c r="U40" s="84"/>
+      <c r="V40" s="85"/>
       <c r="W40" s="41"/>
       <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="64"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="85"/>
       <c r="W41" s="41"/>
       <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="64"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="85"/>
       <c r="W42" s="41"/>
       <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" ht="15" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="63"/>
-      <c r="V43" s="64"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="85"/>
       <c r="W43" s="41"/>
       <c r="X43" s="9"/>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="64"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="83"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="85"/>
       <c r="W44" s="41"/>
       <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="63"/>
-      <c r="V45" s="64"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="84"/>
+      <c r="V45" s="85"/>
       <c r="W45" s="41"/>
       <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="64"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="84"/>
+      <c r="V46" s="85"/>
       <c r="W46" s="41"/>
       <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="64"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="63"/>
-      <c r="V47" s="64"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="84"/>
+      <c r="V47" s="85"/>
       <c r="W47" s="41"/>
       <c r="X47" s="9"/>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="64"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="63"/>
-      <c r="V48" s="64"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="83"/>
+      <c r="U48" s="84"/>
+      <c r="V48" s="85"/>
       <c r="W48" s="41"/>
       <c r="X48" s="9"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="7"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="64"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="63"/>
-      <c r="V49" s="64"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="84"/>
+      <c r="V49" s="85"/>
       <c r="W49" s="41"/>
       <c r="X49" s="9"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="64"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="85"/>
       <c r="W50" s="41"/>
       <c r="X50" s="9"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="63"/>
-      <c r="V51" s="64"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="84"/>
+      <c r="V51" s="85"/>
       <c r="W51" s="41"/>
       <c r="X51" s="9"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="64"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="64"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="84"/>
+      <c r="V52" s="85"/>
       <c r="W52" s="41"/>
       <c r="X52" s="9"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1">
       <c r="A53" s="7"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="63"/>
-      <c r="V53" s="64"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="85"/>
       <c r="W53" s="41"/>
       <c r="X53" s="9"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="64"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="85"/>
       <c r="W54" s="41"/>
       <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="64"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="84"/>
+      <c r="V55" s="85"/>
       <c r="W55" s="41"/>
       <c r="X55" s="9"/>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="64"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="85"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="84"/>
+      <c r="V56" s="85"/>
       <c r="W56" s="41"/>
       <c r="X56" s="9"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="63"/>
-      <c r="V57" s="64"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="84"/>
+      <c r="S57" s="85"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="84"/>
+      <c r="V57" s="85"/>
       <c r="W57" s="41"/>
       <c r="X57" s="9"/>
     </row>
@@ -7646,15 +8065,71 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="U9:V11"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E8:N9"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
     <mergeCell ref="H43:S43"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="Q9:R11"/>
@@ -7671,71 +8146,15 @@
     <mergeCell ref="H39:S39"/>
     <mergeCell ref="H40:S40"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="H41:S41"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:S55"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E8:N9"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -7775,22 +8194,22 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="34" t="s">
         <v>17</v>
       </c>
@@ -7799,16 +8218,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="101"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="34" t="s">
         <v>20</v>
       </c>
@@ -7817,16 +8236,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="102"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="34" t="s">
         <v>22</v>
       </c>
@@ -7835,18 +8254,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="101" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="34" t="s">
         <v>26</v>
       </c>
@@ -7855,16 +8274,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="34" t="s">
         <v>29</v>
       </c>
@@ -7893,16 +8312,16 @@
       <c r="F9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="97"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="91" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="46" t="s">
@@ -7910,141 +8329,141 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="99"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="46" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G11" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="99"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="99"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="47" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="99"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="95"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="46" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="99"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="46" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="40" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="99"/>
+      <c r="H15" s="98"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="99"/>
+      <c r="H16" s="98"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="46" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="99"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1"/>
     <row r="19" spans="1:8" ht="23.25" customHeight="1"/>
@@ -8056,6 +8475,18 @@
     <row r="25" spans="1:8" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="G10:H10"/>
@@ -8063,18 +8494,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -8086,10 +8505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7349E5-525C-4988-A10C-1030CDEEAE2C}">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -8125,133 +8544,133 @@
       <c r="W1" s="51"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="112" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="121" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="115"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="120"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="112" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="112" t="s">
+      <c r="E3" s="117"/>
+      <c r="F3" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="113"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="117"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="115"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="120"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="112" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="121" t="s">
-        <v>84</v>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118" t="s">
+        <v>76</v>
       </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="115"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="120"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="113"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="122" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G6" s="123"/>
       <c r="H6" s="123"/>
@@ -9279,7 +9698,7 @@
       <c r="U48" s="54"/>
       <c r="V48" s="54"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:23">
       <c r="A49" s="53"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -9303,7 +9722,7 @@
       <c r="U49" s="54"/>
       <c r="V49" s="54"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:23">
       <c r="A50" s="53"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -9327,7 +9746,7 @@
       <c r="U50" s="54"/>
       <c r="V50" s="54"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:23">
       <c r="A51" s="53"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -9351,7 +9770,7 @@
       <c r="U51" s="54"/>
       <c r="V51" s="54"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:23">
       <c r="A52" s="53"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -9375,7 +9794,7 @@
       <c r="U52" s="54"/>
       <c r="V52" s="54"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23">
       <c r="A53" s="53"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -9399,7 +9818,7 @@
       <c r="U53" s="54"/>
       <c r="V53" s="54"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:23">
       <c r="A54" s="53"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -9423,7 +9842,7 @@
       <c r="U54" s="54"/>
       <c r="V54" s="54"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23">
       <c r="A55" s="53"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -9447,7 +9866,7 @@
       <c r="U55" s="54"/>
       <c r="V55" s="54"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23">
       <c r="A56" s="53"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -9471,7 +9890,7 @@
       <c r="U56" s="54"/>
       <c r="V56" s="54"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:23">
       <c r="A57" s="53"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -9495,321 +9914,38 @@
       <c r="U57" s="54"/>
       <c r="V57" s="54"/>
     </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="A60" s="53"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="A63" s="53"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" s="53"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" s="53"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" s="53"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="A68" s="53"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-    </row>
-    <row r="69" spans="1:23">
-      <c r="A69" s="53"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="A70" s="56"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="57"/>
-      <c r="U70" s="57"/>
-      <c r="V70" s="57"/>
-      <c r="W70" s="58"/>
+    <row r="58" spans="1:23">
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="57"/>
+      <c r="W58" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:W6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:W2"/>
@@ -9817,11 +9953,6 @@
     <mergeCell ref="F3:W3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:W4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:W6"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/画面設計書.xlsx
+++ b/設計書/画面設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE025512-CD16-4E76-A3C4-4BECF8600EF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D70B4-9C11-410D-9293-90658972A3AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="画面遷移" sheetId="27" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -428,32 +428,8 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>ログインする</t>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ログアウトする</t>
-  </si>
-  <si>
-    <t>映画情報を検索し、一覧を表示する</t>
-  </si>
-  <si>
-    <t>会員情報の登録を行う</t>
-  </si>
-  <si>
-    <t>会員情報の変更を行う</t>
-  </si>
-  <si>
-    <t>退会を行う</t>
-  </si>
-  <si>
-    <t>映画を予約する</t>
-  </si>
-  <si>
-    <t>会員が予約している映画を確認する</t>
   </si>
   <si>
     <t>画面遷移図</t>
@@ -705,23 +681,184 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>G4</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G5-1</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>G5-2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>G6-1</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>G6-2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>プロフィール閲覧</t>
+    <rPh sb="6" eb="8">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>掲示板投稿</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G4-1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G4-2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G7-1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G7-2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ホーム画面を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>会員登録画面をt表示する</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>掲示板画面を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>掲示板の投稿フォームを表示する</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ログイン画面を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>きっかけガチャ画面を表示する</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>チャット選択画面を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>チャット画面を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>マイページ画面を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>マイページ変更画面を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>プロフィール閲覧画面を表示する</t>
+    <rPh sb="6" eb="8">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>G6-3</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -1113,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1237,6 +1374,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,24 +1481,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1374,8 +1508,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1429,6 +1581,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,16 +1696,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>54742</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>54741</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>98535</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>24373</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13816</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1550,8 +1720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7411983" y="1642242"/>
-          <a:ext cx="3678620" cy="3383017"/>
+          <a:off x="3997554" y="4042651"/>
+          <a:ext cx="3986998" cy="3965361"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1584,15 +1754,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>442398</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>81412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>523563</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7965</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1608,7 +1778,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1671430" y="1720122"/>
+          <a:off x="2285946" y="2047864"/>
           <a:ext cx="1310198" cy="909778"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
@@ -1734,16 +1904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292896</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80039</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100052</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>374061</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17832</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181218</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133076</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1758,8 +1928,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7052573" y="1718749"/>
-          <a:ext cx="1310198" cy="921018"/>
+          <a:off x="4401665" y="6746887"/>
+          <a:ext cx="1310198" cy="924254"/>
           <a:chOff x="7154864" y="3068114"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -1853,7 +2023,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G3】</a:t>
+              <a:t>【G4-1】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1876,16 +2046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>297379</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>33799</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12773</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>378543</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>137378</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93937</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136983</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1900,8 +2070,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7057056" y="5769283"/>
-          <a:ext cx="1310197" cy="922934"/>
+          <a:off x="9845031" y="3638565"/>
+          <a:ext cx="1310196" cy="922934"/>
           <a:chOff x="5962948" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -1962,8 +2132,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6037613" y="3040542"/>
-            <a:ext cx="1096995" cy="611533"/>
+            <a:off x="6027488" y="3009082"/>
+            <a:ext cx="1178234" cy="702152"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1995,13 +2165,20 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G5-2】</a:t>
+              <a:t>【G6-3】</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-              <a:t>チャット画面</a:t>
+              <a:t>プロフィール</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>閲覧画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
           </a:p>
@@ -2018,15 +2195,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>566882</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371926</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>14105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>398955</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>84855</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2042,7 +2219,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4253979" y="1652815"/>
+          <a:off x="5902571" y="1980557"/>
           <a:ext cx="1256061" cy="1053975"/>
           <a:chOff x="2923202" y="1811803"/>
           <a:chExt cx="1523998" cy="910167"/>
@@ -2145,16 +2322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>201142</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>37312</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103356</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>48452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>278129</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>131104</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180342</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142244</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2169,8 +2346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10033400" y="3806344"/>
-          <a:ext cx="1306019" cy="913147"/>
+          <a:off x="7477550" y="6767162"/>
+          <a:ext cx="1306018" cy="913147"/>
           <a:chOff x="7788341" y="3625395"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2294,16 +2471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>302444</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55134</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92634</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>380301</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146040</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170491</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123760</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2318,8 +2495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7062121" y="3824166"/>
-          <a:ext cx="1306890" cy="910261"/>
+          <a:off x="7466828" y="5112854"/>
+          <a:ext cx="1306889" cy="910261"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2413,7 +2590,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G5-1】</a:t>
+              <a:t>【G6-1】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2443,16 +2620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>202275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>79904</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90870</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>283438</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6457</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172033</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129000</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2467,8 +2644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10034533" y="1718614"/>
-          <a:ext cx="1310195" cy="909778"/>
+          <a:off x="4392483" y="5115341"/>
+          <a:ext cx="1310195" cy="913014"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2562,7 +2739,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G4】</a:t>
+              <a:t>【G5】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2586,15 +2763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>206009</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>26871</xdr:rowOff>
+      <xdr:colOff>7325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>287174</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>132018</xdr:rowOff>
+      <xdr:colOff>88491</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>143358</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2609,8 +2786,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10038267" y="5762355"/>
-          <a:ext cx="1310197" cy="924502"/>
+          <a:off x="9839583" y="6756922"/>
+          <a:ext cx="1310198" cy="924501"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
         </a:xfrm>
@@ -2734,15 +2911,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>437358</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>53711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>515215</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>158857</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2758,7 +2935,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1666390" y="3822743"/>
+          <a:off x="2280906" y="4150485"/>
           <a:ext cx="1306890" cy="924501"/>
           <a:chOff x="5911103" y="2885515"/>
           <a:chExt cx="1295135" cy="945003"/>
@@ -2876,16 +3053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>523563</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>44689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>566882</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>49481</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371926</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2903,8 +3080,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2944501" y="2237423"/>
-          <a:ext cx="1253787" cy="4792"/>
+          <a:off x="2974440" y="2551268"/>
+          <a:ext cx="2299240" cy="4791"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2935,15 +3112,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>476287</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>482981</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>53711</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2994,16 +3171,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>48936</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>377127</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292896</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>49481</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385440</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3015,14 +3192,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="14" idx="1"/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5435786" y="2241670"/>
-          <a:ext cx="1514688" cy="545"/>
+        <a:xfrm flipH="1">
+          <a:off x="5891601" y="3092750"/>
+          <a:ext cx="8313" cy="946077"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3053,15 +3230,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>328116</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>143353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>564529</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>162321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3118,15 +3295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>339207</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53867</xdr:rowOff>
+      <xdr:colOff>267213</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>525860</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19846</xdr:rowOff>
+      <xdr:colOff>453867</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3141,8 +3318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5786316" y="1909258"/>
-          <a:ext cx="791888" cy="303322"/>
+          <a:off x="5728213" y="3419043"/>
+          <a:ext cx="793432" cy="304645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3181,16 +3358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>63062</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52113</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442013</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>52112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15661</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145303</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394613</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>145302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3205,8 +3382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11098924" y="5143061"/>
-          <a:ext cx="565703" cy="257414"/>
+          <a:off x="9045239" y="5787596"/>
+          <a:ext cx="567116" cy="257061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3245,15 +3422,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>301296</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>93279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>253896</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>22245</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3306,15 +3483,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>169039</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>21379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>121639</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114570</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3370,16 +3547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>21897</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>131380</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370895</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>251811</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>158602</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>70555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3394,8 +3571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8605345" y="2430518"/>
-          <a:ext cx="1456121" cy="519894"/>
+          <a:off x="5831895" y="6859357"/>
+          <a:ext cx="1463549" cy="661865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3424,7 +3601,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
@@ -3439,15 +3616,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47215</xdr:colOff>
+      <xdr:colOff>311798</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17106</xdr:rowOff>
+      <xdr:rowOff>43566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>287735</xdr:colOff>
+      <xdr:colOff>410105</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>49609</xdr:rowOff>
+      <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3462,8 +3639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4889090" y="1366481"/>
-          <a:ext cx="845754" cy="369847"/>
+          <a:off x="4571590" y="1313566"/>
+          <a:ext cx="706848" cy="326852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3502,16 +3679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>288595</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3939</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>80284</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>383189</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65689</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>174878</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>103402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3526,8 +3703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5806526" y="3945318"/>
-          <a:ext cx="1320801" cy="390199"/>
+          <a:off x="10998493" y="5197473"/>
+          <a:ext cx="1307728" cy="383989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3566,16 +3743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590342</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>148480</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394470</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>540414</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>77446</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339206</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138745</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3590,8 +3767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7947583" y="5403652"/>
-          <a:ext cx="563176" cy="257415"/>
+          <a:off x="8383180" y="7424988"/>
+          <a:ext cx="559252" cy="251822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3630,16 +3807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>576049</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>112290</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231285</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>75361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295604</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87585</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>559009</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47771</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3654,8 +3831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9772601" y="5203238"/>
-          <a:ext cx="945762" cy="303744"/>
+          <a:off x="8219995" y="6957942"/>
+          <a:ext cx="942240" cy="300152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3694,16 +3871,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>338520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43793</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>591207</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142328</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594032</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3718,8 +3895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="338520" y="3656724"/>
-          <a:ext cx="865790" cy="262759"/>
+          <a:off x="912067" y="3802583"/>
+          <a:ext cx="910997" cy="304433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3759,16 +3936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261008</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>65687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383552</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>350345</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120429</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>356491</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33421</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3783,8 +3960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3326525" y="1707928"/>
-          <a:ext cx="702441" cy="547415"/>
+          <a:off x="3447148" y="2204634"/>
+          <a:ext cx="1198378" cy="335366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3814,14 +3991,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>を押下</a:t>
+            <a:t>ログインを押下</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
@@ -3831,16 +4001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>13992</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116518</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232481</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>472180</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>113974</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>77950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3855,8 +4025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6730338" y="5163954"/>
-          <a:ext cx="1068765" cy="323097"/>
+          <a:off x="8835707" y="5261357"/>
+          <a:ext cx="1074501" cy="325198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3896,425 +4066,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>374061</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>43181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>202275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>48936</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B336F36-8B8A-48B5-8163-0ED9B5728A2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="3"/>
-          <a:endCxn id="65" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8337708" y="2179769"/>
-          <a:ext cx="1665979" cy="5755"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333479</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>341373</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55134</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98CD1CD-48C5-4912-BD07-CA60F3FE4B2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
-          <a:endCxn id="59" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7684538" y="2647479"/>
-          <a:ext cx="7894" cy="1187773"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>239636</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>242857</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>37312</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C5B391-3721-46B4-BF08-BC8C672E7D19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="65" idx="2"/>
-          <a:endCxn id="42" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10653636" y="2636104"/>
-          <a:ext cx="3221" cy="1181326"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>380301</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2032</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>201142</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18411</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0281FF1F-DAEA-40AB-B1A9-B7DD271AA682}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="3"/>
-          <a:endCxn id="42" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8343948" y="4275208"/>
-          <a:ext cx="1658606" cy="16379"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>337961</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>341373</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>33799</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8771CB07-86B6-4D41-8D77-05E10B935EBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="20" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7689020" y="4747922"/>
-          <a:ext cx="3412" cy="1038230"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>239636</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>131104</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246592</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>26871</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9CB815-CEF1-412E-9C07-934C0B826288}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="104" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10653636" y="4732986"/>
-          <a:ext cx="6956" cy="1046238"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>553590</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>149977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>557482</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>154680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704A9A96-C064-4132-9ED4-8337CBAD5552}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7880513" y="4708951"/>
-          <a:ext cx="3892" cy="981626"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>89304</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>12880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>89551</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>32564</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4362,127 +4122,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>578013</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>32564</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>194596</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>153629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>578260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>52248</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD077EBA-5B46-42B3-9ECB-3F6DD29F14BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7904936" y="2637692"/>
-          <a:ext cx="247" cy="1159428"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>521025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>521272</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19684</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D474867-0103-4146-94DD-995CD7125050}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10900833" y="2605128"/>
-          <a:ext cx="247" cy="1159428"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>545448</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130257</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>545449</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4497,9 +4145,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10925256" y="4689231"/>
-          <a:ext cx="1" cy="1009487"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8183306" y="7363952"/>
+          <a:ext cx="1034437" cy="10242"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4530,32 +4178,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>398854</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56987</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170491</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>170961</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56989</xdr:rowOff>
+      <xdr:colOff>9048</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C3182C-12BB-49DD-974A-8CEDAF10C31F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D32E9C4-E59D-4D12-A637-21EE3E528835}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="156" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8369199" y="2356125"/>
-          <a:ext cx="1611417" cy="2"/>
+        <a:xfrm flipV="1">
+          <a:off x="8159201" y="5565507"/>
+          <a:ext cx="1067589" cy="2478"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4586,32 +4237,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390769</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180342</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>162876</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>7325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FAFCCC-C659-45EC-BC75-D4E0C9D2460D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F51CE8-D146-4594-892B-5B7693ADA89C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="104" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8328269" y="4396154"/>
-          <a:ext cx="1603838" cy="2"/>
+        <a:xfrm flipV="1">
+          <a:off x="8076429" y="7296655"/>
+          <a:ext cx="1041766" cy="4563"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4642,239 +4296,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>377567</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>231689</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25744</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D32E9C4-E59D-4D12-A637-21EE3E528835}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8297905" y="2608650"/>
-          <a:ext cx="1681892" cy="1167026"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368986</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>437358</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>128716</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257433</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68649</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEDA5A6-FACE-4A74-AA45-520FD320B4E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8289324" y="2574324"/>
-          <a:ext cx="1716217" cy="1244257"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>480540</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444157</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60068</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0888578-288A-4CAF-B813-D54FA180A4CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8400878" y="2709563"/>
-          <a:ext cx="1791387" cy="1263478"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257432</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128716</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>137297</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F51CE8-D146-4594-892B-5B7693ADA89C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8177770" y="2737365"/>
-          <a:ext cx="1707635" cy="1175608"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>437358</xdr:colOff>
-      <xdr:row>13</xdr:row>
       <xdr:rowOff>44688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>442398</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>24172</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4927,15 +4357,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>482981</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>14104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>580397</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385440</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>81411</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4954,8 +4384,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="3563552" y="415084"/>
-          <a:ext cx="67307" cy="2549830"/>
+          <a:off x="4076873" y="263633"/>
+          <a:ext cx="67307" cy="3578775"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4988,581 +4418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333478</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>21898</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61156</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>62460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>21899</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80040</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="コネクタ: カギ線 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C451D7C5-097A-4A1E-B203-BF20E5119C46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9794049" y="-767639"/>
-          <a:ext cx="386590" cy="4593249"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21897</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32845</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10949</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線コネクタ 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FD6C05-F1B2-46B7-BEDE-F0F5B2FDE275}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12283966" y="1335690"/>
-          <a:ext cx="10948" cy="6229569"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>591207</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>153276</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32845</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="コネクタ: カギ線 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1659FB75-F187-4930-9BCF-45B4A370BAAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4882931" y="4258879"/>
-          <a:ext cx="7411983" cy="3317328"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -74"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>242856</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>21897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>251810</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>79904</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="166" name="直線コネクタ 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26088B92-9937-406E-9702-BB0FB6781E81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="65" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10665615" y="1335690"/>
-          <a:ext cx="8954" cy="386455"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>278129</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21897</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2096</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="185" name="直線コネクタ 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E05A3F7-2FF2-4179-A205-5555E8BD79C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="42" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11313991" y="4269828"/>
-          <a:ext cx="969975" cy="2096"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246591</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>132018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>251810</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10949</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="188" name="直線コネクタ 187">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBE9472-A379-4611-978B-7865D679F216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="104" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10669350" y="6700984"/>
-          <a:ext cx="5219" cy="864275"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>337962</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>137378</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350345</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="195" name="直線コネクタ 194">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD46FAD9-F94F-4A92-8FC9-FF3D478B17F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="20" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7695203" y="6706344"/>
-          <a:ext cx="12383" cy="847966"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>591207</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>302444</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>18475</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="196" name="直線コネクタ 195">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF0CF69-77B1-4D7A-9520-A9786CE8C4D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="59" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4882931" y="4269828"/>
-          <a:ext cx="2163651" cy="18475"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>569310</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109483</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295603</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142328</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="199" name="直線コネクタ 198">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E1AAAE-62EE-424A-8C2D-CA49A5763592}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4861034" y="2572845"/>
-          <a:ext cx="2178707" cy="1675086"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>525517</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>131379</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>602155</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>131380</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="203" name="直線矢印コネクタ 202">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D298FC8-FB70-4EBE-B840-CB90D0511229}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2977931" y="2594741"/>
-          <a:ext cx="1915948" cy="1642242"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>306552</xdr:colOff>
+      <xdr:colOff>155750</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>401146</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>61751</xdr:rowOff>
+      <xdr:rowOff>124212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5577,8 +4442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6437586" y="7225862"/>
-          <a:ext cx="1320801" cy="390199"/>
+          <a:off x="10979365" y="6829475"/>
+          <a:ext cx="1307728" cy="383991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5617,16 +4482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>251809</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>153276</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154149</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>346403</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>50803</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248744</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>6093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5641,8 +4506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448361" y="7214914"/>
-          <a:ext cx="1320801" cy="390199"/>
+          <a:off x="8039522" y="7998885"/>
+          <a:ext cx="1307729" cy="385417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5681,16 +4546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>361294</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43793</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33551</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76639</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65689</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>122904</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5705,8 +4570,79 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11397156" y="3820948"/>
-          <a:ext cx="941552" cy="514569"/>
+          <a:off x="9865809" y="4611696"/>
+          <a:ext cx="703869" cy="513509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>アイコン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>を押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69346</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>163940</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="テキスト ボックス 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841E8EF8-B3E3-4F07-9678-CEC22B4FFA58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10987555" y="3751821"/>
+          <a:ext cx="1307728" cy="383990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5745,23 +4681,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>273707</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>32845</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>356009</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>126150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>368301</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>94596</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450603</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>26781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="テキスト ボックス 207">
+        <xdr:cNvPr id="209" name="テキスト ボックス 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841E8EF8-B3E3-4F07-9678-CEC22B4FFA58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9173768C-7361-4BAF-976E-99ED700A288F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5769,8 +4705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7630948" y="1018190"/>
-          <a:ext cx="1320801" cy="390199"/>
+          <a:off x="5208546" y="8021001"/>
+          <a:ext cx="1307729" cy="383989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5809,23 +4745,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>98534</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>348507</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>193128</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83647</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>443100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118418</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="テキスト ボックス 208">
+        <xdr:cNvPr id="210" name="テキスト ボックス 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9173768C-7361-4BAF-976E-99ED700A288F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0A2C4D-7BD8-4D57-BB6C-0059E193A582}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5833,8 +4769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10521293" y="1007241"/>
-          <a:ext cx="1320801" cy="390199"/>
+          <a:off x="8840447" y="2801171"/>
+          <a:ext cx="1307728" cy="378516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5874,22 +4810,1440 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>98535</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>164223</xdr:rowOff>
+      <xdr:colOff>336545</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>193129</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61750</xdr:rowOff>
+      <xdr:colOff>417710</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131879</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="グループ化 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1864ED01-B3C1-4C35-9284-F57B85F77F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5867190" y="3961204"/>
+          <a:ext cx="1310197" cy="922933"/>
+          <a:chOff x="5962948" y="2885515"/>
+          <a:chExt cx="1295135" cy="945003"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="角丸四角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911F3F47-40A0-447F-9567-1E8C986081CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5962948" y="2885515"/>
+            <a:ext cx="1295135" cy="945003"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="テキスト ボックス 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9522DDE-75DE-4DC1-BD75-A8D9B7DDF1D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6037613" y="3040542"/>
+            <a:ext cx="1096995" cy="611533"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>【G3】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>ホーム画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518218</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226264</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB484536-3552-46D5-B722-F2EB0556717E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6036149" y="5080000"/>
+          <a:ext cx="934253" cy="1744425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116781</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>240863</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAF9879-F9F5-4957-86E1-B0511806E0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5021609" y="5065402"/>
+          <a:ext cx="737185" cy="1759023"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181218</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>164564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103356</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D98E7DE-445C-49C5-B81B-B8ACC9045C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086046" y="7383127"/>
+          <a:ext cx="1761448" cy="14721"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58391</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>43794</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3A3F13-0589-483D-8BE7-DE50401D8683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5167586" y="5970460"/>
+          <a:ext cx="1634943" cy="956150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270057</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>72988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21896</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02434EC9-1EC6-4473-A7F2-2BBB5FCE7EFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5174885" y="5948563"/>
+          <a:ext cx="1591149" cy="956150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417710</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>131563</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32854</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A4F0A8-7AF7-40EC-8971-28CB545DA965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="3"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6548744" y="4528740"/>
+          <a:ext cx="940060" cy="708194"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>131452</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>336545</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="コネクタ: カギ線 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C23223D-626E-4286-A414-09FE43790A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="0"/>
+          <a:endCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4476934" y="4474983"/>
+          <a:ext cx="710681" cy="818197"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>131563</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>48452</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFA5F09-0896-41C2-8511-4C27C1708104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7488804" y="6167208"/>
+          <a:ext cx="10287" cy="764060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>131452</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140636</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F2315A-391F-4845-A663-35E14CB0233F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4423176" y="6172448"/>
+          <a:ext cx="9184" cy="738545"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172033</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>162243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92634</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直線矢印コネクタ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717834A0-3BA6-44D0-B9AA-A4F25ECF4FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5076861" y="5702071"/>
+          <a:ext cx="1759911" cy="3864"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9048</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90212</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127618</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="155" name="グループ化 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B1382F-2E78-4B3C-B216-86C4E350A8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9841306" y="5104040"/>
+          <a:ext cx="1310196" cy="922933"/>
+          <a:chOff x="5962948" y="2885515"/>
+          <a:chExt cx="1295135" cy="945003"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="角丸四角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3909BB20-62DD-4880-B8E9-23A9F1BEBCE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5962948" y="2885515"/>
+            <a:ext cx="1295135" cy="945003"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="157" name="テキスト ボックス 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466359AB-EF9C-4E38-A264-A716EA2B6D9B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6037613" y="3040542"/>
+            <a:ext cx="1096995" cy="611533"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>【G6-2】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>チャット画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12773</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="コネクタ: カギ線 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E48497-32DD-4913-BA73-33399C3BEF73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7906774" y="4100032"/>
+          <a:ext cx="1323741" cy="969726"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1065"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>24778</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105943</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137833</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="182" name="グループ化 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E23A571-E409-4CC6-8AC6-202ECC34A808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1868326" y="6751644"/>
+          <a:ext cx="1310198" cy="924254"/>
+          <a:chOff x="7154864" y="3068114"/>
+          <a:chExt cx="1295135" cy="945003"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="183" name="角丸四角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF79853-1B1C-48E9-A363-5E06E7489A13}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7154864" y="3068114"/>
+            <a:ext cx="1295135" cy="945003"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="テキスト ボックス 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF53725-72DE-4AFE-B04A-F7F6E5FF1E0B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7276861" y="3255434"/>
+            <a:ext cx="957243" cy="473413"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>【G4-2】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>掲示板投稿画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105943</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>32962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100052</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>32962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直線矢印コネクタ 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CC24EF-1F75-43B2-BAEC-C90553074278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3178524" y="7407156"/>
+          <a:ext cx="1223141" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105943</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>162562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100052</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直線矢印コネクタ 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935600E7-A61C-4FBD-B107-D555AA06F17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="183" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3178524" y="7209014"/>
+          <a:ext cx="1223141" cy="4757"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>49630</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53355</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直線矢印コネクタ 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF7B9E2-5526-41AE-997B-CFDC97ADB185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="156" idx="0"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10429438" y="4752945"/>
+          <a:ext cx="3725" cy="570903"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>184355</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>143387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>153629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="直線矢印コネクタ 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C565A7-1293-43F1-BEB1-6A5219AE0016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8787581" y="5715000"/>
+          <a:ext cx="1034437" cy="10242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225323</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225323</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直線矢印コネクタ 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4FCDEC-CA29-4630-80C6-20B6D46CF477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10672097" y="4588387"/>
+          <a:ext cx="0" cy="481371"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61451</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532581</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="200" name="コネクタ: カギ線 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50560FF-24DD-4638-8113-FCC517892C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8664677" y="4240160"/>
+          <a:ext cx="1085646" cy="839841"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266291</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218891</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="テキスト ボックス 209">
+        <xdr:cNvPr id="211" name="テキスト ボックス 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0A2C4D-7BD8-4D57-BB6C-0059E193A582}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2580ADDD-B157-4FC1-B157-5377CACB085B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5897,8 +6251,1208 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5616466" y="2627585"/>
-          <a:ext cx="1320801" cy="390199"/>
+          <a:off x="10713065" y="4690806"/>
+          <a:ext cx="567116" cy="257061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>316271</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>268871</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>122687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="テキスト ボックス 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C6815D-5B3A-4F24-94A3-321B2D32D608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8919497" y="4290142"/>
+          <a:ext cx="567116" cy="257061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>583790</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="テキスト ボックス 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F55523-8445-4D6D-B431-4C561319AEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8471901" y="3878964"/>
+          <a:ext cx="1222432" cy="326148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>アイコンを押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102421</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>153631</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>153630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="テキスト ボックス 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628C1957-4A20-4DC0-A952-3E363B884D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175002" y="6882582"/>
+          <a:ext cx="1280242" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>投稿ボタンを押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419919</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>364655</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>149402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="テキスト ボックス 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE34E345-A587-4D82-86CF-1CB820799E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="7435645"/>
+          <a:ext cx="559252" cy="251822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65359</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140634</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="コネクタ: カギ線 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15502A6E-8CF5-4A21-A581-E74737349876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="2"/>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3787715" y="6406850"/>
+          <a:ext cx="4757" cy="2533339"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4805550"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>153629</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>122904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204839</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>112662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="テキスト ボックス 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DC37A3-36BD-476D-BBB1-22166AA7936F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3226210" y="7988710"/>
+          <a:ext cx="1280242" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>書き込むを押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="コネクタ: カギ線 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E81282B-1D1D-4D8D-84F2-82341AB50535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6801556" y="3231444"/>
+          <a:ext cx="5334000" cy="846668"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 265"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592669</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>14110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="コネクタ: カギ線 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D12A03A-CB13-4861-90E4-FDB20C377CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="592669" y="3231443"/>
+          <a:ext cx="11556998" cy="5926667"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 115"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>598010</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>322242</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>5</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="237" name="コネクタ: カギ線 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80429DE4-668F-4B17-BF41-1F8B9B12565D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="-1866630" y="4691880"/>
+          <a:ext cx="6473213" cy="1543933"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100073"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93937</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9478</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4634</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="直線コネクタ 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526F9E8A-6214-4D65-A0A6-A0E92BA4CE14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11012146" y="4018507"/>
+          <a:ext cx="1128675" cy="14112"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90212</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156389</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="248" name="直線コネクタ 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EADFDB0-BAF5-4105-AC18-0C0E483696CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="156" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11008421" y="5468582"/>
+          <a:ext cx="1122922" cy="4747"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>88491</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10226</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="直線コネクタ 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D695E5BD-C93F-42E7-98C9-0EA24BB2A94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11006700" y="7089254"/>
+          <a:ext cx="1124643" cy="10226"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141849</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142164</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="直線コネクタ 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455DC8DF-A0B3-400F-80DE-D29146A64432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8027222" y="7553737"/>
+          <a:ext cx="315" cy="1146711"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313933</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>128427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322239</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>16080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="直線コネクタ 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EB539C-74CF-4BC0-8F76-C03F2AD0D13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5165618" y="7677079"/>
+          <a:ext cx="8306" cy="1200462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297405</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="コネクタ: カギ線 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC843CE-FC76-45BB-8453-040BDE768C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8238924" y="6213354"/>
+          <a:ext cx="3978798" cy="399052"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -303"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594811</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>96456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78520</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="テキスト ボックス 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D0E4BA-10A5-44B0-9F47-F905FBD59507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9758102" y="6341962"/>
+          <a:ext cx="1316367" cy="399345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログアウトを押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599326</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90870</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="直線コネクタ 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEF4ADB-7697-4DAD-ACF0-27281A7C4C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="599326" y="5579558"/>
+          <a:ext cx="3736769" cy="7015"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599326</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>24778</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="直線コネクタ 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D09441-F81E-499D-9BB8-6477336618C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="599326" y="7213315"/>
+          <a:ext cx="1244834" cy="10468"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20484</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115078</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="テキスト ボックス 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803810FA-611A-467C-A6D6-3D38AA7B36CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="6913307"/>
+          <a:ext cx="1323626" cy="392244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログアウトを押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>153629</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>51210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248222</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>115712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="テキスト ボックス 267">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AEA79F-7603-4A91-9FD4-3A09372F1D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1997177" y="5295081"/>
+          <a:ext cx="1323626" cy="392244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6489,16 +8043,16 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="74" t="s">
+      <c r="Q3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="61"/>
-      <c r="S3" s="59">
+      <c r="R3" s="66"/>
+      <c r="S3" s="64">
         <v>43712</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="61"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="66"/>
       <c r="W3" s="32"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="8"/>
@@ -6547,13 +8101,13 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
-      <c r="Q5" s="90" t="s">
+      <c r="Q5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="9"/>
@@ -6576,14 +8130,14 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="90" t="s">
-        <v>62</v>
+      <c r="Q6" s="95" t="s">
+        <v>54</v>
       </c>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
       <c r="W6" s="8"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="8"/>
@@ -6595,14 +8149,14 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -6621,70 +8175,70 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="75" t="s">
-        <v>61</v>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="80" t="s">
+        <v>53</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="74" t="s">
+      <c r="Q8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="61"/>
-      <c r="S8" s="74" t="s">
+      <c r="R8" s="66"/>
+      <c r="S8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="74" t="s">
+      <c r="T8" s="66"/>
+      <c r="U8" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="61"/>
+      <c r="V8" s="66"/>
       <c r="W8" s="32"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="80"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="62" t="s">
-        <v>59</v>
+      <c r="Q9" s="67" t="s">
+        <v>51</v>
       </c>
-      <c r="R9" s="63"/>
-      <c r="S9" s="62" t="s">
-        <v>60</v>
+      <c r="R9" s="68"/>
+      <c r="S9" s="67" t="s">
+        <v>52</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="62" t="s">
-        <v>75</v>
+      <c r="T9" s="68"/>
+      <c r="U9" s="67" t="s">
+        <v>67</v>
       </c>
-      <c r="V9" s="63"/>
+      <c r="V9" s="68"/>
       <c r="W9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="8"/>
@@ -6706,12 +8260,12 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="65"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="30"/>
       <c r="X10" s="28"/>
       <c r="Y10" s="8"/>
@@ -6733,12 +8287,12 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="67"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="30"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="25"/>
@@ -6823,81 +8377,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="86" t="s">
-        <v>58</v>
+      <c r="B15" s="91" t="s">
+        <v>50</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="43"/>
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
       <c r="W16" s="43"/>
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
       <c r="W17" s="43"/>
       <c r="X17" s="9"/>
     </row>
@@ -7451,511 +9005,511 @@
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="83" t="s">
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="84"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="83" t="s">
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="84"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="83" t="s">
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="84"/>
-      <c r="V39" s="85"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="90"/>
       <c r="W39" s="41"/>
       <c r="X39" s="9"/>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="87">
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="92">
         <v>43578</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="83" t="s">
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="83" t="s">
-        <v>75</v>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="88" t="s">
+        <v>67</v>
       </c>
-      <c r="U40" s="84"/>
-      <c r="V40" s="85"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="90"/>
       <c r="W40" s="41"/>
       <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="85"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="90"/>
       <c r="W41" s="41"/>
       <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="83"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="85"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="90"/>
       <c r="W42" s="41"/>
       <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" ht="15" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="83"/>
-      <c r="U43" s="84"/>
-      <c r="V43" s="85"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="90"/>
       <c r="W43" s="41"/>
       <c r="X43" s="9"/>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="83"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="85"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="90"/>
       <c r="W44" s="41"/>
       <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="83"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="85"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="89"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="90"/>
       <c r="W45" s="41"/>
       <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="83"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="85"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="90"/>
       <c r="W46" s="41"/>
       <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="85"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="85"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="90"/>
       <c r="W47" s="41"/>
       <c r="X47" s="9"/>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="85"/>
-      <c r="T48" s="83"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="85"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="90"/>
       <c r="W48" s="41"/>
       <c r="X48" s="9"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="7"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="85"/>
-      <c r="T49" s="83"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="85"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="90"/>
       <c r="W49" s="41"/>
       <c r="X49" s="9"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="85"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="90"/>
       <c r="W50" s="41"/>
       <c r="X50" s="9"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="85"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="85"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="90"/>
       <c r="W51" s="41"/>
       <c r="X51" s="9"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="85"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="90"/>
       <c r="W52" s="41"/>
       <c r="X52" s="9"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1">
       <c r="A53" s="7"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="85"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="90"/>
       <c r="W53" s="41"/>
       <c r="X53" s="9"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="85"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="90"/>
       <c r="W54" s="41"/>
       <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="85"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="90"/>
       <c r="W55" s="41"/>
       <c r="X55" s="9"/>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="85"/>
-      <c r="T56" s="83"/>
-      <c r="U56" s="84"/>
-      <c r="V56" s="85"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="90"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="90"/>
       <c r="W56" s="41"/>
       <c r="X56" s="9"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="85"/>
-      <c r="T57" s="83"/>
-      <c r="U57" s="84"/>
-      <c r="V57" s="85"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="89"/>
+      <c r="V57" s="90"/>
       <c r="W57" s="41"/>
       <c r="X57" s="9"/>
     </row>
@@ -8166,10 +9720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A2" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
@@ -8194,40 +9748,40 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="104" t="s">
-        <v>63</v>
+      <c r="C2" s="103" t="s">
+        <v>55</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="102"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="34" t="s">
         <v>20</v>
       </c>
@@ -8236,16 +9790,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="103"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>65</v>
+      <c r="C4" s="103" t="s">
+        <v>57</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="34" t="s">
         <v>22</v>
       </c>
@@ -8254,18 +9808,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="100" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>66</v>
+      <c r="C5" s="103" t="s">
+        <v>58</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="34" t="s">
         <v>26</v>
       </c>
@@ -8274,16 +9828,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="103"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="104" t="s">
-        <v>67</v>
+      <c r="C6" s="103" t="s">
+        <v>59</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="34" t="s">
         <v>29</v>
       </c>
@@ -8312,16 +9866,16 @@
       <c r="F9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="94" t="s">
-        <v>64</v>
+      <c r="A10" s="110" t="s">
+        <v>56</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="108" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="46" t="s">
@@ -8329,171 +9883,233 @@
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="40" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="98"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="40" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
-      <c r="G11" s="97" t="s">
-        <v>40</v>
+      <c r="G11" s="96" t="s">
+        <v>39</v>
       </c>
-      <c r="H11" s="98"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A12" s="95"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="47" t="s">
-        <v>70</v>
+      <c r="A12" s="111"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="40" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>42</v>
+      <c r="F12" s="59" t="s">
+        <v>83</v>
       </c>
-      <c r="G12" s="97" t="s">
-        <v>40</v>
+      <c r="G12" s="96" t="s">
+        <v>39</v>
       </c>
-      <c r="H12" s="98"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A13" s="95"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
-      <c r="G13" s="97" t="s">
-        <v>40</v>
+      <c r="G13" s="96" t="s">
+        <v>39</v>
       </c>
-      <c r="H13" s="98"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="46" t="s">
-        <v>72</v>
+      <c r="A14" s="111"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>44</v>
+      <c r="F14" s="59" t="s">
+        <v>86</v>
       </c>
-      <c r="G14" s="97" t="s">
-        <v>40</v>
+      <c r="G14" s="96" t="s">
+        <v>39</v>
       </c>
-      <c r="H14" s="98"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="46" t="s">
-        <v>73</v>
+      <c r="A15" s="111"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="40" t="s">
-        <v>83</v>
+      <c r="E15" s="63" t="s">
+        <v>80</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>45</v>
+      <c r="F15" s="59" t="s">
+        <v>88</v>
       </c>
-      <c r="G15" s="97" t="s">
-        <v>40</v>
+      <c r="G15" s="105" t="s">
+        <v>39</v>
       </c>
-      <c r="H15" s="98"/>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A16" s="95"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="46" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="52" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>46</v>
+      <c r="F16" s="44" t="s">
+        <v>89</v>
       </c>
-      <c r="G16" s="97" t="s">
-        <v>40</v>
+      <c r="G16" s="96" t="s">
+        <v>39</v>
       </c>
-      <c r="H16" s="98"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="52" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>47</v>
+      <c r="F17" s="59" t="s">
+        <v>90</v>
       </c>
-      <c r="G17" s="97" t="s">
-        <v>40</v>
+      <c r="G17" s="105" t="s">
+        <v>39</v>
       </c>
-      <c r="H17" s="98"/>
-    </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1"/>
-    <row r="19" spans="1:8" ht="23.25" customHeight="1"/>
-    <row r="20" spans="1:8" ht="23.25" customHeight="1"/>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1"/>
+      <c r="H17" s="106"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A18" s="111"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="97"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A19" s="111"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="106"/>
+    </row>
+    <row r="20" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A20" s="111"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="106"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A21" s="134"/>
+      <c r="B21" s="133"/>
+      <c r="E21" s="134"/>
+    </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1"/>
     <row r="23" spans="1:8" ht="23.25" customHeight="1"/>
     <row r="24" spans="1:8" ht="23.25" customHeight="1"/>
     <row r="25" spans="1:8" ht="23.25" customHeight="1"/>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1"/>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1"/>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1"/>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+  <mergeCells count="22">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B10:B20"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A10:A20"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -8505,22 +10121,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7349E5-525C-4988-A10C-1030CDEEAE2C}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="62" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="23" max="23" width="8.7265625" style="55"/>
+    <col min="24" max="24" width="8.7265625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="48" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -8536,185 +10152,193 @@
       <c r="O1" s="49"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
       <c r="T1" s="49"/>
       <c r="U1" s="49"/>
       <c r="V1" s="49"/>
-      <c r="W1" s="51"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="107" t="s">
-        <v>49</v>
+      <c r="W1" s="49"/>
+      <c r="X1" s="51"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="112" t="s">
+        <v>41</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="116" t="s">
-        <v>50</v>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="121" t="s">
+        <v>42</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="120"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="116" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="117"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="120"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="107" t="s">
-        <v>54</v>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="125"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="121" t="s">
+        <v>43</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="116" t="s">
-        <v>55</v>
+      <c r="F3" s="122"/>
+      <c r="G3" s="121" t="s">
+        <v>44</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118" t="s">
-        <v>76</v>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="122"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121" t="s">
+        <v>45</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="120"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116" t="s">
-        <v>56</v>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="125"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="112" t="s">
+        <v>46</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="122" t="s">
-        <v>77</v>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="121" t="s">
+        <v>47</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="124"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="F5" s="122"/>
+      <c r="G5" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="125"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="122"/>
+      <c r="G6" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="129"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="132"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="53"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -8737,8 +10361,9 @@
       <c r="T8" s="54"/>
       <c r="U8" s="54"/>
       <c r="V8" s="54"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="W8" s="54"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="53"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -8761,8 +10386,9 @@
       <c r="T9" s="54"/>
       <c r="U9" s="54"/>
       <c r="V9" s="54"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="W9" s="54"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="53"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -8785,8 +10411,9 @@
       <c r="T10" s="54"/>
       <c r="U10" s="54"/>
       <c r="V10" s="54"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="W10" s="54"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="53"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -8809,8 +10436,9 @@
       <c r="T11" s="54"/>
       <c r="U11" s="54"/>
       <c r="V11" s="54"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="W11" s="54"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -8833,8 +10461,9 @@
       <c r="T12" s="54"/>
       <c r="U12" s="54"/>
       <c r="V12" s="54"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="W12" s="54"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="53"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -8857,8 +10486,9 @@
       <c r="T13" s="54"/>
       <c r="U13" s="54"/>
       <c r="V13" s="54"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="W13" s="54"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="53"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -8881,8 +10511,9 @@
       <c r="T14" s="54"/>
       <c r="U14" s="54"/>
       <c r="V14" s="54"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="W14" s="54"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="53"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -8905,8 +10536,9 @@
       <c r="T15" s="54"/>
       <c r="U15" s="54"/>
       <c r="V15" s="54"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="W15" s="54"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="53"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -8929,8 +10561,9 @@
       <c r="T16" s="54"/>
       <c r="U16" s="54"/>
       <c r="V16" s="54"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="54"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="53"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -8953,8 +10586,9 @@
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
       <c r="V17" s="54"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="54"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="53"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -8977,8 +10611,9 @@
       <c r="T18" s="54"/>
       <c r="U18" s="54"/>
       <c r="V18" s="54"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="54"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="53"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -9001,8 +10636,9 @@
       <c r="T19" s="54"/>
       <c r="U19" s="54"/>
       <c r="V19" s="54"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="54"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="53"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -9025,8 +10661,9 @@
       <c r="T20" s="54"/>
       <c r="U20" s="54"/>
       <c r="V20" s="54"/>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="54"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="53"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -9049,8 +10686,9 @@
       <c r="T21" s="54"/>
       <c r="U21" s="54"/>
       <c r="V21" s="54"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="54"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="53"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -9073,8 +10711,9 @@
       <c r="T22" s="54"/>
       <c r="U22" s="54"/>
       <c r="V22" s="54"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="54"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="53"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -9097,8 +10736,9 @@
       <c r="T23" s="54"/>
       <c r="U23" s="54"/>
       <c r="V23" s="54"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="54"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -9121,8 +10761,9 @@
       <c r="T24" s="54"/>
       <c r="U24" s="54"/>
       <c r="V24" s="54"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" s="54"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -9145,8 +10786,9 @@
       <c r="T25" s="54"/>
       <c r="U25" s="54"/>
       <c r="V25" s="54"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="54"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="53"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -9169,8 +10811,9 @@
       <c r="T26" s="54"/>
       <c r="U26" s="54"/>
       <c r="V26" s="54"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" s="54"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="53"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -9193,8 +10836,9 @@
       <c r="T27" s="54"/>
       <c r="U27" s="54"/>
       <c r="V27" s="54"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="54"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="53"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -9217,8 +10861,9 @@
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
       <c r="V28" s="54"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="54"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -9241,8 +10886,9 @@
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
       <c r="V29" s="54"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="54"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -9265,8 +10911,9 @@
       <c r="T30" s="54"/>
       <c r="U30" s="54"/>
       <c r="V30" s="54"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" s="54"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="53"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -9289,8 +10936,9 @@
       <c r="T31" s="54"/>
       <c r="U31" s="54"/>
       <c r="V31" s="54"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" s="54"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="53"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -9313,8 +10961,9 @@
       <c r="T32" s="54"/>
       <c r="U32" s="54"/>
       <c r="V32" s="54"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" s="54"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="53"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -9337,8 +10986,9 @@
       <c r="T33" s="54"/>
       <c r="U33" s="54"/>
       <c r="V33" s="54"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="54"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="53"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -9361,8 +11011,9 @@
       <c r="T34" s="54"/>
       <c r="U34" s="54"/>
       <c r="V34" s="54"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" s="54"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="53"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -9385,8 +11036,9 @@
       <c r="T35" s="54"/>
       <c r="U35" s="54"/>
       <c r="V35" s="54"/>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="54"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="53"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -9409,8 +11061,9 @@
       <c r="T36" s="54"/>
       <c r="U36" s="54"/>
       <c r="V36" s="54"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" s="54"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="53"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
@@ -9433,8 +11086,9 @@
       <c r="T37" s="54"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="54"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -9457,8 +11111,9 @@
       <c r="T38" s="54"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" s="54"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="53"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -9481,8 +11136,9 @@
       <c r="T39" s="54"/>
       <c r="U39" s="54"/>
       <c r="V39" s="54"/>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" s="54"/>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="53"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -9505,8 +11161,9 @@
       <c r="T40" s="54"/>
       <c r="U40" s="54"/>
       <c r="V40" s="54"/>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" s="54"/>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="53"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -9529,8 +11186,9 @@
       <c r="T41" s="54"/>
       <c r="U41" s="54"/>
       <c r="V41" s="54"/>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" s="54"/>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="53"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -9553,8 +11211,9 @@
       <c r="T42" s="54"/>
       <c r="U42" s="54"/>
       <c r="V42" s="54"/>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" s="54"/>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="53"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -9577,8 +11236,9 @@
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" s="54"/>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="53"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -9601,8 +11261,9 @@
       <c r="T44" s="54"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" s="54"/>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="53"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -9625,8 +11286,9 @@
       <c r="T45" s="54"/>
       <c r="U45" s="54"/>
       <c r="V45" s="54"/>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" s="54"/>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="53"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -9649,8 +11311,9 @@
       <c r="T46" s="54"/>
       <c r="U46" s="54"/>
       <c r="V46" s="54"/>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" s="54"/>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="53"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -9673,8 +11336,9 @@
       <c r="T47" s="54"/>
       <c r="U47" s="54"/>
       <c r="V47" s="54"/>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47" s="54"/>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="53"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -9697,8 +11361,9 @@
       <c r="T48" s="54"/>
       <c r="U48" s="54"/>
       <c r="V48" s="54"/>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="W48" s="54"/>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="53"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -9721,8 +11386,9 @@
       <c r="T49" s="54"/>
       <c r="U49" s="54"/>
       <c r="V49" s="54"/>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="W49" s="54"/>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="53"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -9745,8 +11411,9 @@
       <c r="T50" s="54"/>
       <c r="U50" s="54"/>
       <c r="V50" s="54"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="W50" s="54"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="53"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -9769,8 +11436,9 @@
       <c r="T51" s="54"/>
       <c r="U51" s="54"/>
       <c r="V51" s="54"/>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="W51" s="54"/>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="53"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -9793,8 +11461,9 @@
       <c r="T52" s="54"/>
       <c r="U52" s="54"/>
       <c r="V52" s="54"/>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="W52" s="54"/>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="53"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -9817,8 +11486,9 @@
       <c r="T53" s="54"/>
       <c r="U53" s="54"/>
       <c r="V53" s="54"/>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="W53" s="54"/>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="53"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -9841,8 +11511,9 @@
       <c r="T54" s="54"/>
       <c r="U54" s="54"/>
       <c r="V54" s="54"/>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="W54" s="54"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="53"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -9865,8 +11536,9 @@
       <c r="T55" s="54"/>
       <c r="U55" s="54"/>
       <c r="V55" s="54"/>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="W55" s="54"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="53"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -9889,8 +11561,9 @@
       <c r="T56" s="54"/>
       <c r="U56" s="54"/>
       <c r="V56" s="54"/>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="W56" s="54"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="53"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -9913,46 +11586,98 @@
       <c r="T57" s="54"/>
       <c r="U57" s="54"/>
       <c r="V57" s="54"/>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="58"/>
+      <c r="W57" s="54"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="53"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="53"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:W6"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:W3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:W4"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:X5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:X6"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:X2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:X3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:X4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/画面設計書.xlsx
+++ b/設計書/画面設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D70B4-9C11-410D-9293-90658972A3AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F14BC-7640-41FA-AF8F-9ADDA6A8AA22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1389,10 +1389,46 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,6 +1452,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1433,9 +1478,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1457,40 +1499,31 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,21 +1541,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1536,15 +1554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,9 +1580,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1583,22 +1589,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2441,7 +2441,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G6-1】</a:t>
+              <a:t>【G7-1】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2881,7 +2881,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>【G6-2】</a:t>
+              <a:t>【G7-2】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -7816,7 +7816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FL61"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
@@ -8043,16 +8043,16 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="64">
+      <c r="R3" s="78"/>
+      <c r="S3" s="86">
         <v>43712</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="66"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="78"/>
       <c r="W3" s="32"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="8"/>
@@ -8101,13 +8101,13 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
-      <c r="Q5" s="95" t="s">
+      <c r="Q5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="9"/>
@@ -8130,14 +8130,14 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
       <c r="W6" s="8"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="8"/>
@@ -8149,14 +8149,14 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -8175,70 +8175,70 @@
     </row>
     <row r="8" spans="1:168" ht="15" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="80" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="96"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="79" t="s">
+      <c r="Q8" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="66"/>
-      <c r="S8" s="79" t="s">
+      <c r="R8" s="78"/>
+      <c r="S8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="66"/>
-      <c r="U8" s="79" t="s">
+      <c r="T8" s="78"/>
+      <c r="U8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="66"/>
+      <c r="V8" s="78"/>
       <c r="W8" s="32"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:168" ht="15" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="67" t="s">
+      <c r="Q9" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="68"/>
-      <c r="S9" s="67" t="s">
+      <c r="R9" s="80"/>
+      <c r="S9" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="68"/>
-      <c r="U9" s="67" t="s">
+      <c r="T9" s="80"/>
+      <c r="U9" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="68"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="30"/>
       <c r="X9" s="28"/>
       <c r="Y9" s="8"/>
@@ -8260,12 +8260,12 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="70"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="30"/>
       <c r="X10" s="28"/>
       <c r="Y10" s="8"/>
@@ -8287,12 +8287,12 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="72"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="30"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="25"/>
@@ -8377,81 +8377,81 @@
     </row>
     <row r="15" spans="1:168" ht="15" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="43"/>
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:168" ht="15" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="43"/>
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="43"/>
       <c r="X17" s="9"/>
     </row>
@@ -9005,511 +9005,511 @@
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="88" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="88" t="s">
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="88" t="s">
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="89"/>
-      <c r="V39" s="90"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="75"/>
       <c r="W39" s="41"/>
       <c r="X39" s="9"/>
     </row>
     <row r="40" spans="1:24" ht="15" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="92">
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="70">
         <v>43578</v>
       </c>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="88" t="s">
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="88" t="s">
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="U40" s="89"/>
-      <c r="V40" s="90"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="75"/>
       <c r="W40" s="41"/>
       <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="90"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="75"/>
       <c r="W41" s="41"/>
       <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" ht="15" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="89"/>
-      <c r="V42" s="90"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="75"/>
       <c r="W42" s="41"/>
       <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" ht="15" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="89"/>
-      <c r="V43" s="90"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="75"/>
       <c r="W43" s="41"/>
       <c r="X43" s="9"/>
     </row>
     <row r="44" spans="1:24" ht="15" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="90"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="75"/>
       <c r="W44" s="41"/>
       <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="90"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="75"/>
       <c r="W45" s="41"/>
       <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" ht="15" customHeight="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="89"/>
-      <c r="V46" s="90"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="75"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="74"/>
+      <c r="V46" s="75"/>
       <c r="W46" s="41"/>
       <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="89"/>
-      <c r="V47" s="90"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="75"/>
       <c r="W47" s="41"/>
       <c r="X47" s="9"/>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="90"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="75"/>
       <c r="W48" s="41"/>
       <c r="X48" s="9"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="7"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="89"/>
-      <c r="R49" s="89"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="89"/>
-      <c r="V49" s="90"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="75"/>
       <c r="W49" s="41"/>
       <c r="X49" s="9"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="90"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="75"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="75"/>
       <c r="W50" s="41"/>
       <c r="X50" s="9"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="90"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="74"/>
+      <c r="V51" s="75"/>
       <c r="W51" s="41"/>
       <c r="X51" s="9"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="89"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="89"/>
-      <c r="V52" s="90"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="75"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="75"/>
       <c r="W52" s="41"/>
       <c r="X52" s="9"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1">
       <c r="A53" s="7"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="89"/>
-      <c r="Q53" s="89"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="89"/>
-      <c r="V53" s="90"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="74"/>
+      <c r="V53" s="75"/>
       <c r="W53" s="41"/>
       <c r="X53" s="9"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="89"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="89"/>
-      <c r="V54" s="90"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="74"/>
+      <c r="V54" s="75"/>
       <c r="W54" s="41"/>
       <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="90"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="74"/>
+      <c r="V55" s="75"/>
       <c r="W55" s="41"/>
       <c r="X55" s="9"/>
     </row>
     <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
-      <c r="Q56" s="89"/>
-      <c r="R56" s="89"/>
-      <c r="S56" s="90"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="89"/>
-      <c r="V56" s="90"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="74"/>
+      <c r="V56" s="75"/>
       <c r="W56" s="41"/>
       <c r="X56" s="9"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="89"/>
-      <c r="O57" s="89"/>
-      <c r="P57" s="89"/>
-      <c r="Q57" s="89"/>
-      <c r="R57" s="89"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="89"/>
-      <c r="V57" s="90"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="75"/>
       <c r="W57" s="41"/>
       <c r="X57" s="9"/>
     </row>
@@ -9619,20 +9619,66 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:S57"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E8:N9"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="Q9:R11"/>
+    <mergeCell ref="B15:V17"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:S51"/>
+    <mergeCell ref="T51:V51"/>
     <mergeCell ref="T57:V57"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="H41:S41"/>
@@ -9649,66 +9695,20 @@
     <mergeCell ref="H53:S53"/>
     <mergeCell ref="T53:V53"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:S52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q9:R11"/>
-    <mergeCell ref="B15:V17"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="U9:V11"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E8:N9"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:S57"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:S54"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9748,22 +9748,22 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="111" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="34" t="s">
         <v>17</v>
       </c>
@@ -9772,16 +9772,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="101"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="34" t="s">
         <v>20</v>
       </c>
@@ -9790,16 +9790,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="102"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="34" t="s">
         <v>22</v>
       </c>
@@ -9808,18 +9808,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="111" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="34" t="s">
         <v>26</v>
       </c>
@@ -9828,16 +9828,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="34" t="s">
         <v>29</v>
       </c>
@@ -9866,13 +9866,13 @@
       <c r="F9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="99"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="116" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="108" t="s">
@@ -9888,13 +9888,13 @@
       <c r="F10" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="109"/>
       <c r="C11" s="46" t="s">
         <v>61</v>
@@ -9906,13 +9906,13 @@
       <c r="F11" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="97"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="109"/>
       <c r="C12" s="46" t="s">
         <v>75</v>
@@ -9924,13 +9924,13 @@
       <c r="F12" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="97"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="109"/>
       <c r="C13" s="47" t="s">
         <v>62</v>
@@ -9942,13 +9942,13 @@
       <c r="F13" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="97"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A14" s="111"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="109"/>
       <c r="C14" s="47" t="s">
         <v>77</v>
@@ -9960,13 +9960,13 @@
       <c r="F14" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="97"/>
+      <c r="H14" s="103"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A15" s="111"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="109"/>
       <c r="C15" s="47" t="s">
         <v>63</v>
@@ -9978,13 +9978,13 @@
       <c r="F15" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="105"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A16" s="111"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="109"/>
       <c r="C16" s="46" t="s">
         <v>64</v>
@@ -9996,13 +9996,13 @@
       <c r="F16" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="97"/>
+      <c r="H16" s="103"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A17" s="111"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="109"/>
       <c r="C17" s="46" t="s">
         <v>65</v>
@@ -10014,13 +10014,13 @@
       <c r="F17" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="105" t="s">
+      <c r="G17" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="106"/>
+      <c r="H17" s="105"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A18" s="111"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="109"/>
       <c r="C18" s="46" t="s">
         <v>76</v>
@@ -10032,13 +10032,13 @@
       <c r="F18" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="96" t="s">
+      <c r="G18" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="97"/>
+      <c r="H18" s="103"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A19" s="111"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="109"/>
       <c r="C19" s="46" t="s">
         <v>49</v>
@@ -10050,13 +10050,13 @@
       <c r="F19" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A20" s="111"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="109"/>
       <c r="C20" s="46" t="s">
         <v>66</v>
@@ -10068,15 +10068,15 @@
       <c r="F20" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="106"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A21" s="134"/>
-      <c r="B21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="67"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1"/>
     <row r="23" spans="1:8" ht="23.25" customHeight="1"/>
@@ -10088,6 +10088,21 @@
     <row r="29" spans="1:8" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G13:H13"/>
@@ -10095,21 +10110,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A10:A20"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -10136,7 +10136,7 @@
       <c r="A1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -10161,182 +10161,182 @@
       <c r="X1" s="51"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="121" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123" t="s">
+      <c r="F2" s="125"/>
+      <c r="G2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="125"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="128"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="121" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="121" t="s">
+      <c r="F3" s="125"/>
+      <c r="G3" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="122"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="125"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="121" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="128"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="121" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="123" t="s">
+      <c r="F5" s="125"/>
+      <c r="G5" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="125"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="128"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121" t="s">
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="122"/>
-      <c r="G6" s="127" t="s">
+      <c r="F6" s="125"/>
+      <c r="G6" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="129"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="131"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="61"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="132"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="66"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="53"/>
@@ -11666,11 +11666,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:X5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:X6"/>
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:X2"/>
@@ -11678,6 +11673,11 @@
     <mergeCell ref="G3:X3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:X4"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:X5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:X6"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
